--- a/biology/Médecine/Syndrome_Varadi-Papp/Syndrome_Varadi-Papp.xlsx
+++ b/biology/Médecine/Syndrome_Varadi-Papp/Syndrome_Varadi-Papp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome Varadi-Papp fait partie des syndromes oro-facio-digitaux. Il s'en distingue par :
@@ -515,7 +527,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Polydactylie fente labio palatine retard psychomoteur
 Syndrome Oro-facio-digital type 6</t>
@@ -546,7 +560,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Inconnue</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients sont plutôt petits et présentent un retard de développement staturo-pondéral.
 Le visage présente des traits caractéristiques. Il existe souvent une division labiale et palatine ou un hamartome de la langue.
@@ -611,7 +629,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le syndrome de Varadi-Papp doit être discuté avec :
 Syndrome de Pallister-Hall
@@ -644,7 +664,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Transmission autosomique récessive</t>
         </is>
@@ -674,7 +696,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) https://www.ncbi.nlm.nih.gov/omim/277170 Online Mendelian Inheritance in Man], OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:277170
  Portail de la médecine                     </t>
